--- a/dist/datos/lplantillas.xlsx
+++ b/dist/datos/lplantillas.xlsx
@@ -412,14 +412,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
+    <col width="15.109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="4.77734375" bestFit="1" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
@@ -772,6 +774,236 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JIMENEZ ADRIAN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7678576</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>565765765</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maenza</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>25500</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>30/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ORIGINAL JUAN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Kramer</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rochas L</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>39000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ORIGINALJUAN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Plastazote</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rochas L</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7121</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
